--- a/im-repository/im-repository-export-data.xlsx
+++ b/im-repository/im-repository-export-data.xlsx
@@ -1774,7 +1774,11 @@
           <t/>
         </is>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="I3" s="10" t="inlineStr">
         <is>
           <t/>
@@ -1823,7 +1827,11 @@
           <t/>
         </is>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="I4" s="10" t="inlineStr">
         <is>
           <t/>
@@ -1872,7 +1880,11 @@
           <t/>
         </is>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="I5" s="10" t="inlineStr">
         <is>
           <t/>
@@ -2792,17 +2804,41 @@
           <t>Survey ID</t>
         </is>
       </c>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
+      <c r="AD4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG4" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
+      <c r="AH4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ4" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
@@ -2955,17 +2991,41 @@
           <t>Questionnaire</t>
         </is>
       </c>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
+      <c r="AD5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG5" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
+      <c r="AH5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ5" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK5" s="10"/>
       <c r="AL5" s="10"/>
       <c r="AM5" s="10"/>
@@ -3118,17 +3178,41 @@
           <t>Questionnaire Summary</t>
         </is>
       </c>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
+      <c r="AD6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG6" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
+      <c r="AH6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ6" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
@@ -3277,17 +3361,41 @@
           <t>Start date</t>
         </is>
       </c>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
+      <c r="AD7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG7" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
+      <c r="AH7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ7" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="10"/>
       <c r="AM7" s="10"/>
@@ -3436,17 +3544,41 @@
           <t>End date</t>
         </is>
       </c>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
+      <c r="AD8" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE8" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF8" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG8" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
+      <c r="AH8" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI8" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ8" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK8" s="10"/>
       <c r="AL8" s="10"/>
       <c r="AM8" s="10"/>
@@ -3599,17 +3731,41 @@
           <t>Survey ID</t>
         </is>
       </c>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
+      <c r="AD9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG9" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
+      <c r="AH9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ9" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>
@@ -3762,17 +3918,41 @@
           <t>Question ID</t>
         </is>
       </c>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
+      <c r="AD10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG10" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
+      <c r="AH10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
@@ -3929,17 +4109,41 @@
           <t>Question number</t>
         </is>
       </c>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
+      <c r="AD11" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE11" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF11" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG11" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
+      <c r="AH11" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI11" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ11" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
@@ -4092,17 +4296,41 @@
           <t>Question content</t>
         </is>
       </c>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
+      <c r="AD12" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE12" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF12" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG12" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
+      <c r="AH12" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI12" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ12" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
       <c r="AM12" s="10"/>
@@ -4255,17 +4483,41 @@
           <t>Left end of answer item</t>
         </is>
       </c>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
+      <c r="AD13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG13" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
+      <c r="AH13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ13" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="10"/>
       <c r="AM13" s="10"/>
@@ -4418,17 +4670,41 @@
           <t>Right end of answer item</t>
         </is>
       </c>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
+      <c r="AD14" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE14" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF14" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG14" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
+      <c r="AH14" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI14" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ14" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK14" s="10"/>
       <c r="AL14" s="10"/>
       <c r="AM14" s="10"/>
@@ -4581,17 +4857,41 @@
           <t>Survey ID</t>
         </is>
       </c>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
+      <c r="AD15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG15" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
+      <c r="AH15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ15" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK15" s="10"/>
       <c r="AL15" s="10"/>
       <c r="AM15" s="10"/>
@@ -4744,17 +5044,41 @@
           <t>Enquete ID</t>
         </is>
       </c>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
+      <c r="AD16" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE16" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF16" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG16" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
+      <c r="AH16" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI16" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ16" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
       <c r="AM16" s="10"/>
@@ -4911,17 +5235,41 @@
           <t>Respondent</t>
         </is>
       </c>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
+      <c r="AD17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG17" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
+      <c r="AH17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ17" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK17" s="10"/>
       <c r="AL17" s="10"/>
       <c r="AM17" s="10"/>
@@ -5070,17 +5418,41 @@
           <t>Answer date and time</t>
         </is>
       </c>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
+      <c r="AD18" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE18" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF18" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG18" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
+      <c r="AH18" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI18" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ18" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK18" s="10"/>
       <c r="AL18" s="10"/>
       <c r="AM18" s="10"/>
@@ -5233,17 +5605,41 @@
           <t>Answer</t>
         </is>
       </c>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
+      <c r="AD19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AG19" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
+      <c r="AH19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AI19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AJ19" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
       <c r="AM19" s="10"/>
